--- a/biology/Zoologie/Crapaud_guttural/Crapaud_guttural.xlsx
+++ b/biology/Zoologie/Crapaud_guttural/Crapaud_guttural.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sclerophrys gutturalis
-Sclerophrys gutturalis, le Crapaud guttural, est une espèce d'amphibiens de la famille des Bufonidae[1].
+Sclerophrys gutturalis, le Crapaud guttural, est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce crapaud se rencontre jusqu'à 1 900 m d'altitude[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce crapaud se rencontre jusqu'à 1 900 m d'altitude, :
 dans l'extrême Sud de la Somalie ;
 au Kenya ;
 en Ouganda ;
@@ -530,7 +544,7 @@
 dans le Nord de l'Afrique du Sud ;
 au Lesotho ;
 au Swaziland.
-Elle a été introduite à l'île Maurice et à La Réunion, ainsi que dans la ville du Cap[3].
+Elle a été introduite à l'île Maurice et à La Réunion, ainsi que dans la ville du Cap.
 La frontière entre cette espèce et Sclerophrys regularis au Kenya, en Ouganda et en Tanzanie est mal connue.
 </t>
         </is>
@@ -560,14 +574,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle mesure 70 mm et la femelle 90 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle mesure 70 mm et la femelle 90 mm.
 			Sclerophrys gutturalis
 			Sclerophrys gutturalis
 			Sclerophrys gutturalis
 			Crapaud guttural nageant dans le lac Sibaya, dans le parc de la zone humide d'iSimangaliso en Afrique du Sud. Octobre 2014.
-Elle est de couleur brun clair avec des taches plus foncées et des taches rouges vers la cuisse. Sa peau est grenue[2].
+Elle est de couleur brun clair avec des taches plus foncées et des taches rouges vers la cuisse. Sa peau est grenue.
 </t>
         </is>
       </c>
@@ -596,7 +612,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa dénomination de « guttural » vient de son cri grinçant et sonore.
 En anglais, il est appelé « Guttural Toad », parfois « Lobatsi Toad », ou encore « Square-marked Toad ».
@@ -628,7 +646,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Power, 1927 : On the herpetological fauna of the Lobatsi-Linokana area. Transactions of the Royal Society of South Africa, vol. 14, no 4, p. 405-422.</t>
         </is>
